--- a/docs/Cuestionario_SUS.xlsx
+++ b/docs/Cuestionario_SUS.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Formula explained" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Formula explained" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,18 +23,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Autoría desconocida</author>
   </authors>
   <commentList>
-    <comment ref="X12" authorId="0">
+    <comment ref="N12" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAABJ4_bmB4
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -92,34 +90,13 @@
     <t xml:space="preserve">SUS Score</t>
   </si>
   <si>
-    <t xml:space="preserve">User 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly Disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strongly disagree</t>
+    <t xml:space="preserve">Coti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia</t>
   </si>
   <si>
     <t xml:space="preserve">Final</t>
@@ -194,12 +171,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,6 +199,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,12 +213,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -247,18 +226,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -307,56 +280,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,462 +401,328 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="12" style="0" width="3.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="40.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="3.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <f aca="false">25-SUM(C2,E2,G2,I2,K2)</f>
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <f aca="false">(M2+L2)*2.5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <f aca="false">25-SUM(C3,E3,G3,I3,K3)</f>
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="N3" s="9" t="n">
+        <f aca="false">(M3+L3)*2.5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <f aca="false">25-SUM(C4,E4,G4,I4,K4)</f>
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <f aca="false">IF(AND(B2="Agree"), 4, IF(OR(B2="Disagree"), 2, IF(OR(B2="Strongly Disagree"), 1, IF(OR(B2="Neutral"), 3, IF(OR(B2="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <f aca="false">IF(AND(C2="Agree"), 4, IF(OR(C2="Disagree"), 2, IF(OR(C2="Strongly Disagree"), 1, IF(OR(C2="Neutral"), 3, IF(OR(C2="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <f aca="false">IF(AND(D2="Agree"), 4, IF(OR(D2="Disagree"), 2, IF(OR(D2="Strongly Disagree"), 1, IF(OR(D2="Neutral"), 3, IF(OR(D2="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="O2" s="7" t="n">
-        <f aca="false">IF(AND(E2="Agree"), 4, IF(OR(E2="Disagree"), 2, IF(OR(E2="Strongly Disagree"), 1, IF(OR(E2="Neutral"), 3, IF(OR(E2="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="P2" s="7" t="n">
-        <f aca="false">IF(AND(F2="Agree"), 4, IF(OR(F2="Disagree"), 2, IF(OR(F2="Strongly Disagree"), 1, IF(OR(F2="Neutral"), 3, IF(OR(F2="Strongly Agree"), 5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <f aca="false">IF(AND(G2="Agree"), 4, IF(OR(G2="Disagree"), 2, IF(OR(G2="Strongly Disagree"), 1, IF(OR(G2="Neutral"), 3, IF(OR(G2="Strongly Agree"), 5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="R2" s="7" t="n">
-        <f aca="false">IF(AND(H2="Agree"), 4, IF(OR(H2="Disagree"), 2, IF(OR(H2="Strongly Disagree"), 1, IF(OR(H2="Neutral"), 3, IF(OR(H2="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="S2" s="7" t="n">
-        <f aca="false">IF(AND(I2="Agree"), 4, IF(OR(I2="Disagree"), 2, IF(OR(I2="Strongly Disagree"), 1, IF(OR(I2="Neutral"), 3, IF(OR(I2="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="T2" s="7" t="n">
-        <f aca="false">IF(AND(J2="Agree"), 4, IF(OR(J2="Disagree"), 2, IF(OR(J2="Strongly Disagree"), 1, IF(OR(J2="Neutral"), 3, IF(OR(J2="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="U2" s="7" t="n">
-        <f aca="false">IF(AND(K2="Agree"), 4, IF(OR(K2="Disagree"), 2, IF(OR(K2="Strongly Disagree"), 1, IF(OR(K2="Neutral"), 3, IF(OR(K2="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="8" t="n">
-        <f aca="false">(SUM(L2,N2,P2,R2,T2))-5</f>
-        <v>16</v>
-      </c>
-      <c r="W2" s="8" t="n">
-        <f aca="false">25-SUM(M2,O2,Q2,S2,U2)</f>
-        <v>15</v>
-      </c>
-      <c r="X2" s="9" t="n">
-        <f aca="false">(W2+V2)*2.5</f>
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <f aca="false">IF(AND(B3="Agree"), 4, IF(OR(B3="Disagree"), 2, IF(OR(B3="Strongly Disagree"), 1, IF(OR(B3="Neutral"), 3, IF(OR(B3="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <f aca="false">IF(AND(C3="Agree"), 4, IF(OR(C3="Disagree"), 2, IF(OR(C3="Strongly Disagree"), 1, IF(OR(C3="Neutral"), 3, IF(OR(C3="Strongly Agree"), 5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <f aca="false">IF(AND(D3="Agree"), 4, IF(OR(D3="Disagree"), 2, IF(OR(D3="Strongly Disagree"), 1, IF(OR(D3="Neutral"), 3, IF(OR(D3="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <f aca="false">IF(AND(E3="Agree"), 4, IF(OR(E3="Disagree"), 2, IF(OR(E3="Strongly Disagree"), 1, IF(OR(E3="Neutral"), 3, IF(OR(E3="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <f aca="false">IF(AND(F3="Agree"), 4, IF(OR(F3="Disagree"), 2, IF(OR(F3="Strongly Disagree"), 1, IF(OR(F3="Neutral"), 3, IF(OR(F3="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <f aca="false">IF(AND(G3="Agree"), 4, IF(OR(G3="Disagree"), 2, IF(OR(G3="Strongly Disagree"), 1, IF(OR(G3="Neutral"), 3, IF(OR(G3="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <f aca="false">IF(AND(H3="Agree"), 4, IF(OR(H3="Disagree"), 2, IF(OR(H3="Strongly Disagree"), 1, IF(OR(H3="Neutral"), 3, IF(OR(H3="Strongly Agree"), 5)))))</f>
-        <v>3</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <f aca="false">IF(AND(I3="Agree"), 4, IF(OR(I3="Disagree"), 2, IF(OR(I3="Strongly Disagree"), 1, IF(OR(I3="Neutral"), 3, IF(OR(I3="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <f aca="false">IF(AND(J3="Agree"), 4, IF(OR(J3="Disagree"), 2, IF(OR(J3="Strongly Disagree"), 1, IF(OR(J3="Neutral"), 3, IF(OR(J3="Strongly Agree"), 5)))))</f>
-        <v>4</v>
-      </c>
-      <c r="U3" s="7" t="n">
-        <f aca="false">IF(AND(K3="Agree"), 4, IF(OR(K3="Disagree"), 2, IF(OR(K3="Strongly Disagree"), 1, IF(OR(K3="Neutral"), 3, IF(OR(K3="Strongly Agree"), 5)))))</f>
-        <v>2</v>
-      </c>
-      <c r="V3" s="8" t="n">
-        <f aca="false">(SUM(L3,N3,P3,R3,T3))-5</f>
-        <v>14</v>
-      </c>
-      <c r="W3" s="8" t="n">
-        <f aca="false">25-SUM(M3,O3,Q3,S3,U3)</f>
-        <v>14</v>
-      </c>
-      <c r="X3" s="9" t="n">
-        <f aca="false">(W3+V3)*2.5</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <f aca="false">IF(AND(B4="Agree"), 4, IF(OR(B4="Disagree"), 2, IF(OR(B4="Strongly Disagree"), 1, IF(OR(B4="Neutral"), 3, IF(OR(B4="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <f aca="false">IF(AND(C4="Agree"), 4, IF(OR(C4="Disagree"), 2, IF(OR(C4="Strongly Disagree"), 1, IF(OR(C4="Neutral"), 3, IF(OR(C4="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <f aca="false">IF(AND(D4="Agree"), 4, IF(OR(D4="Disagree"), 2, IF(OR(D4="Strongly Disagree"), 1, IF(OR(D4="Neutral"), 3, IF(OR(D4="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <f aca="false">IF(AND(E4="Agree"), 4, IF(OR(E4="Disagree"), 2, IF(OR(E4="Strongly Disagree"), 1, IF(OR(E4="Neutral"), 3, IF(OR(E4="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <f aca="false">IF(AND(F4="Agree"), 4, IF(OR(F4="Disagree"), 2, IF(OR(F4="Strongly Disagree"), 1, IF(OR(F4="Neutral"), 3, IF(OR(F4="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <f aca="false">IF(AND(G4="Agree"), 4, IF(OR(G4="Disagree"), 2, IF(OR(G4="Strongly Disagree"), 1, IF(OR(G4="Neutral"), 3, IF(OR(G4="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <f aca="false">IF(AND(H4="Agree"), 4, IF(OR(H4="Disagree"), 2, IF(OR(H4="Strongly Disagree"), 1, IF(OR(H4="Neutral"), 3, IF(OR(H4="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <f aca="false">IF(AND(I4="Agree"), 4, IF(OR(I4="Disagree"), 2, IF(OR(I4="Strongly Disagree"), 1, IF(OR(I4="Neutral"), 3, IF(OR(I4="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <f aca="false">IF(AND(J4="Agree"), 4, IF(OR(J4="Disagree"), 2, IF(OR(J4="Strongly Disagree"), 1, IF(OR(J4="Neutral"), 3, IF(OR(J4="Strongly Agree"), 5)))))</f>
-        <v>5</v>
-      </c>
-      <c r="U4" s="7" t="n">
-        <f aca="false">IF(AND(K4="Agree"), 4, IF(OR(K4="Disagree"), 2, IF(OR(K4="Strongly Disagree"), 1, IF(OR(K4="Neutral"), 3, IF(OR(K4="Strongly Agree"), 5)))))</f>
-        <v>1</v>
-      </c>
-      <c r="V4" s="8" t="n">
-        <f aca="false">(SUM(L4,N4,P4,R4,T4))-5</f>
-        <v>20</v>
-      </c>
-      <c r="W4" s="8" t="n">
-        <f aca="false">25-SUM(M4,O4,Q4,S4,U4)</f>
-        <v>20</v>
-      </c>
-      <c r="X4" s="9" t="n">
-        <f aca="false">(W4+V4)*2.5</f>
-        <v>100</v>
+      <c r="N4" s="9" t="n">
+        <f aca="false">(M4+L4)*2.5</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>25</v>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="10"/>
-    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1881,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1893,78 +1728,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
+      <c r="A1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
+      <c r="A2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
+      <c r="A3" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
+      <c r="A4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
+      <c r="A5" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
+      <c r="A8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
+      <c r="A9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>33</v>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>34</v>
+      <c r="A15" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
+      <c r="A19" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>36</v>
+      <c r="A20" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>37</v>
+      <c r="A21" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
+      <c r="A22" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>39</v>
+      <c r="A23" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/docs/Cuestionario_SUS.xlsx
+++ b/docs/Cuestionario_SUS.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamá</t>
   </si>
   <si>
     <t xml:space="preserve">Final</t>
@@ -199,13 +205,15 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -309,23 +317,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,7 +523,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +534,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -612,11 +620,11 @@
       <c r="L2" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="7" t="n">
         <f aca="false">25-SUM(C2,E2,G2,I2,K2)</f>
         <v>20</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="8" t="n">
         <f aca="false">(M2+L2)*2.5</f>
         <v>60</v>
       </c>
@@ -658,11 +666,11 @@
       <c r="L3" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="7" t="n">
         <f aca="false">25-SUM(C3,E3,G3,I3,K3)</f>
         <v>16</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="8" t="n">
         <f aca="false">(M3+L3)*2.5</f>
         <v>50</v>
       </c>
@@ -704,22 +712,63 @@
       <c r="L4" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="7" t="n">
         <f aca="false">25-SUM(C4,E4,G4,I4,K4)</f>
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="8" t="n">
         <f aca="false">(M4+L4)*2.5</f>
         <v>57.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1734,72 +1783,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/docs/Cuestionario_SUS.xlsx
+++ b/docs/Cuestionario_SUS.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -90,25 +90,22 @@
     <t xml:space="preserve">SUS Score</t>
   </si>
   <si>
-    <t xml:space="preserve">Coti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tati</t>
+    <t xml:space="preserve">Constanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo</t>
   </si>
   <si>
     <t xml:space="preserve">Claudia</t>
   </si>
   <si>
-    <t xml:space="preserve">Papá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamá</t>
+    <t xml:space="preserve">Ruben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole</t>
   </si>
   <si>
     <t xml:space="preserve">Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aca sacamos el promedio de cada usuario</t>
   </si>
   <si>
     <t xml:space="preserve">Strongly Disagree: 1 point</t>
@@ -234,7 +231,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +248,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,7 +320,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,6 +330,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -383,7 +394,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -523,12 +534,12 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.7"/>
@@ -618,7 +629,8 @@
         <v>1</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>4</v>
+        <f aca="false">SUM(B2,D2,F2,H2,J2)-5</f>
+        <v>20</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">25-SUM(C2,E2,G2,I2,K2)</f>
@@ -626,7 +638,7 @@
       </c>
       <c r="N2" s="8" t="n">
         <f aca="false">(M2+L2)*2.5</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +676,8 @@
         <v>3</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>4</v>
+        <f aca="false">SUM(B3,D3,F3,H3,J3)-5</f>
+        <v>17</v>
       </c>
       <c r="M3" s="7" t="n">
         <f aca="false">25-SUM(C3,E3,G3,I3,K3)</f>
@@ -672,7 +685,7 @@
       </c>
       <c r="N3" s="8" t="n">
         <f aca="false">(M3+L3)*2.5</f>
-        <v>50</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +723,8 @@
         <v>1</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>4</v>
+        <f aca="false">SUM(B4,D4,F4,H4,J4)-5</f>
+        <v>20</v>
       </c>
       <c r="M4" s="7" t="n">
         <f aca="false">25-SUM(C4,E4,G4,I4,K4)</f>
@@ -718,7 +732,7 @@
       </c>
       <c r="N4" s="8" t="n">
         <f aca="false">(M4+L4)*2.5</f>
-        <v>57.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,23 +769,87 @@
       <c r="K5" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">SUM(B5,D5,F5,H5,J5)-5</f>
+        <v>15</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <f aca="false">25-SUM(C5,E5,G5,I5,K5)</f>
+        <v>14</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <f aca="false">(M5+L5)*2.5</f>
+        <v>72.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">SUM(B6,D6,F6,H6,J6)-5</f>
+        <v>19</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <f aca="false">25-SUM(C6,E6,G6,I6,K6)</f>
+        <v>20</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <f aca="false">(M6+L6)*2.5</f>
+        <v>97.5</v>
+      </c>
       <c r="P6" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>20</v>
+      <c r="N9" s="11" t="n">
+        <f aca="false">AVERAGE(N2:N6)</f>
+        <v>90</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="6"/>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1772,7 +1850,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1783,72 +1861,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>28</v>
+      <c r="A12" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>34</v>
+      <c r="A23" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
